--- a/data/trans_bre/P1416-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P1416-Edad-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.602740722058472</v>
+        <v>-0.8729450806696775</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-3.440947272736837</v>
+        <v>-3.140202438070388</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-5.180869463970029</v>
+        <v>-4.81249268599704</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-10.09739845406544</v>
+        <v>-9.853259253546213</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.06333223365095181</v>
+        <v>-0.09067191460513013</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.3375671550584267</v>
+        <v>-0.3100984711566348</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.4074658292549546</v>
+        <v>-0.404092877704228</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.5554976841985969</v>
+        <v>-0.5555939396283053</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>6.767827536547316</v>
+        <v>6.443060236833423</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>3.983900123543791</v>
+        <v>4.030516441104023</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3.203877628728591</v>
+        <v>3.351039159367394</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>3.138555548916864</v>
+        <v>3.700869031323615</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1.072979312930253</v>
+        <v>1.018284648836288</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.6273811576305974</v>
+        <v>0.6036676887335897</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4103942121495492</v>
+        <v>0.4087709971030211</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.3559130046665279</v>
+        <v>0.3580198975406362</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>3.300593214198161</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>2.381451080580741</v>
+        <v>2.381451080580736</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.305859590477869</v>
@@ -749,7 +749,7 @@
         <v>0.5102960544568593</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.2166594269484935</v>
+        <v>0.2166594269484931</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-0.5816817337272177</v>
+        <v>-0.7283430029944873</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-0.7459007920151299</v>
+        <v>-0.9338112065230879</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1969685444753769</v>
+        <v>0.3138770985152583</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-2.828533950903542</v>
+        <v>-2.48296823795513</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.06647695997867942</v>
+        <v>-0.07785732276529365</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.1020153141133114</v>
+        <v>-0.1445726493993817</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.02952052326075591</v>
+        <v>0.03078625487034646</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.1926701408713777</v>
+        <v>-0.1951254169162225</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.757167394631158</v>
+        <v>6.004709124196824</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>5.057887218925925</v>
+        <v>5.089251346624017</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>6.415379685378989</v>
+        <v>6.368016080254344</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>7.279171896243795</v>
+        <v>6.863065120472485</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.8858885346878325</v>
+        <v>0.9086715634830665</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.9586204349757251</v>
+        <v>0.9639009894309004</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.270023310440229</v>
+        <v>1.211641207724018</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.8933474046857252</v>
+        <v>0.8186665766168331</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>5.181286009815087</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.3671465363841914</v>
+        <v>0.3671465363841928</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.6263472937249639</v>
@@ -849,7 +849,7 @@
         <v>1.087305781658375</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.03251009594351433</v>
+        <v>0.03251009594351446</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>1.031304133899427</v>
+        <v>1.150881287516168</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>1.535184719161925</v>
+        <v>1.771665651445736</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2.485341177368906</v>
+        <v>2.1960667736887</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-3.259935235086931</v>
+        <v>-3.095937502737198</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.1125429495213745</v>
+        <v>0.114340814274522</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1913909495134837</v>
+        <v>0.2190903766329622</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3617498857314726</v>
+        <v>0.3675279042565084</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.2409831556314947</v>
+        <v>-0.2294422335912523</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>7.196376758347224</v>
+        <v>7.340495838398055</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>7.696257041692832</v>
+        <v>7.885643469993012</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>8.179387571674791</v>
+        <v>8.229572364728584</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>3.651321677110351</v>
+        <v>3.831188359077389</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>1.376328183594624</v>
+        <v>1.387044472153556</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>1.687132363644146</v>
+        <v>1.65946075674836</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>2.243142899623038</v>
+        <v>2.365997612529888</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.4044493606226551</v>
+        <v>0.4242010192439408</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>4.292405300306212</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>4.522919075979891</v>
+        <v>4.522919075979893</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.8434596611207797</v>
@@ -949,7 +949,7 @@
         <v>1.251964899249729</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.4304934269956123</v>
+        <v>0.4304934269956125</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>1.193127177042999</v>
+        <v>1.079009109717357</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>1.485835686082605</v>
+        <v>1.49348371661545</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1.663361541430636</v>
+        <v>1.843366088149947</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1.311518004942873</v>
+        <v>0.9490154684691526</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.1673823956539002</v>
+        <v>0.1121667181230649</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.322529453963519</v>
+        <v>0.3346678489146588</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.326904698660304</v>
+        <v>0.362968568723658</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.0950387526206856</v>
+        <v>0.07182641952825353</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>8.243144142058371</v>
+        <v>7.916324284504422</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>6.806854921412034</v>
+        <v>6.36731498565336</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>6.714378225955101</v>
+        <v>7.155716997188731</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>7.641994787463563</v>
+        <v>7.528565041130821</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>2.160555458383147</v>
+        <v>2.089109624909973</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>4.272796702531634</v>
+        <v>4.047975785327006</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>2.756656763147212</v>
+        <v>2.887685840221617</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.8851268745739995</v>
+        <v>0.8842134707176693</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>3.98831397569465</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>3.956213878961812</v>
+        <v>3.95621387896181</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1100474575473051</v>
@@ -1049,7 +1049,7 @@
         <v>0.9963505657132162</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.4835185025899772</v>
+        <v>0.483518502589977</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-3.299086501732616</v>
+        <v>-2.585865349939961</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.818490734617711</v>
+        <v>-1.571554106889117</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.7703381344755565</v>
+        <v>0.9049737030392475</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1.114414380789983</v>
+        <v>0.9591785476858705</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.3728160913252601</v>
+        <v>-0.3342109084350658</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.3981707813309595</v>
+        <v>-0.3267191022551362</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.104816227622394</v>
+        <v>0.1422937258286314</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.09149046339047276</v>
+        <v>0.08990382522077947</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>3.814339864766688</v>
+        <v>4.338967202561128</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>3.680367533095008</v>
+        <v>3.941461981194671</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>6.859726052726837</v>
+        <v>7.207735263332454</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>6.795177337542592</v>
+        <v>6.835761545759842</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.8100038498881149</v>
+        <v>0.9856587104367434</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>1.579991089320236</v>
+        <v>1.714843828107085</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>2.37592770133968</v>
+        <v>2.470847784671521</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>1.027513973722116</v>
+        <v>1.035478282825546</v>
       </c>
     </row>
     <row r="19">
@@ -1137,7 +1137,7 @@
         <v>2.127946946244858</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>4.522074057750516</v>
+        <v>4.522074057750517</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>1.114852539981698</v>
@@ -1149,7 +1149,7 @@
         <v>1.516763337788325</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>0.77838595447252</v>
+        <v>0.7783859544725202</v>
       </c>
     </row>
     <row r="20">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>1.301524241202455</v>
+        <v>1.394397874622826</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-3.565145758695431</v>
+        <v>-3.427112072289634</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-0.05313212574014228</v>
+        <v>0.1199779956337159</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>1.430902999980274</v>
+        <v>1.744491105686024</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.1350301696059154</v>
+        <v>0.1685016189506507</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.5652947196462629</v>
+        <v>-0.594093995513278</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.1913607520750996</v>
+        <v>-0.123649484749214</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.1847137052136822</v>
+        <v>0.2206812355727812</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>9.174208970686848</v>
+        <v>9.381932622676921</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>3.133825365279418</v>
+        <v>3.250222507900165</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>4.482753973364599</v>
+        <v>4.673395452779308</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>7.449090955979345</v>
+        <v>7.743131751694708</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>3.10725246912579</v>
+        <v>3.325781391401144</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.469778783458989</v>
+        <v>1.429140239494528</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>6.832634017235352</v>
+        <v>7.512025386583694</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>1.748141668337331</v>
+        <v>1.820117926945591</v>
       </c>
     </row>
     <row r="22">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-3.446143815599982</v>
+        <v>-3.173416491397041</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-1.899347631918159</v>
+        <v>-1.88916940697445</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-1.047875852613396</v>
+        <v>-1.447785673741689</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-0.1307939129331349</v>
+        <v>-0.2061546449194672</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.5455526893697022</v>
+        <v>-0.5558951528218895</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.4102306839810425</v>
+        <v>-0.368918572270191</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>-0.2641398616432798</v>
+        <v>-0.389894230131861</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>-0.03210788378617889</v>
+        <v>-0.0442778959507749</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>3.554213797519416</v>
+        <v>3.683811353761784</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>5.217777952336666</v>
+        <v>5.044932056511034</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>5.285677746978291</v>
+        <v>4.918502999054645</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>5.801884950274175</v>
+        <v>5.65464818803035</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>1.592270933009199</v>
+        <v>1.791290909320064</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>3.160285736031645</v>
+        <v>2.930659719400407</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>3.000264417355095</v>
+        <v>2.359329495405637</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>1.592603556938482</v>
+        <v>1.505272483804381</v>
       </c>
     </row>
     <row r="25">
@@ -1337,7 +1337,7 @@
         <v>3.010031432358441</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>2.252058791228056</v>
+        <v>2.252058791228054</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.4328140102318511</v>
@@ -1349,7 +1349,7 @@
         <v>0.6100891366439811</v>
       </c>
       <c r="J25" s="6" t="n">
-        <v>0.2316181532453851</v>
+        <v>0.2316181532453848</v>
       </c>
     </row>
     <row r="26">
@@ -1360,28 +1360,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>1.597517952178528</v>
+        <v>1.520765922735759</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.9487374312323866</v>
+        <v>1.067442532033825</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1.892273062229956</v>
+        <v>1.747429586434055</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.6789875333690789</v>
+        <v>0.8882153721573454</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.2149115787429046</v>
+        <v>0.2084628269614865</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1516917734025253</v>
+        <v>0.1842686693701052</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3511139445811726</v>
+        <v>0.309775871619161</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.06157492173194098</v>
+        <v>0.08033403904285948</v>
       </c>
     </row>
     <row r="27">
@@ -1392,28 +1392,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>4.231508467912104</v>
+        <v>4.310981994245522</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>3.408361864284346</v>
+        <v>3.35501254435537</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>4.269127822496537</v>
+        <v>4.176637074262669</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>3.657724866513597</v>
+        <v>3.812806017662803</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.6998063156302405</v>
+        <v>0.69877039523018</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.7406307673275184</v>
+        <v>0.7384892722691967</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.9877434258020898</v>
+        <v>0.9358480126092941</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.4161546193975327</v>
+        <v>0.4352272076881335</v>
       </c>
     </row>
     <row r="28">
